--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -91,9 +91,6 @@
     <t>重要</t>
   </si>
   <si>
-    <t>不紧急</t>
-  </si>
-  <si>
     <t>New Features</t>
   </si>
   <si>
@@ -116,6 +113,62 @@
   </si>
   <si>
     <t>邵明基</t>
+  </si>
+  <si>
+    <r>
+      <t>房源批量录入页面，系统提示Http</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> status400</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixsBug</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源设置离职提示错误</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李亚林</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,14 +842,14 @@
   <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.5" style="5" customWidth="1"/>
+    <col min="4" max="4" width="35.75" style="5" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
@@ -883,7 +936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -891,41 +944,41 @@
         <v>21</v>
       </c>
       <c r="C2" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="H2" s="35">
         <v>42691</v>
       </c>
       <c r="I2" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" s="35">
         <v>42691</v>
       </c>
       <c r="K2" s="33"/>
       <c r="L2" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="O2" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="36" t="s">
-        <v>27</v>
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="20"/>
@@ -936,19 +989,43 @@
       <c r="V2" s="26"/>
     </row>
     <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="13"/>
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="35">
+        <v>42697</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="35">
+        <v>42697</v>
+      </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="11"/>
+      <c r="L3" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="13"/>
@@ -960,19 +1037,43 @@
       <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="13"/>
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="35">
+        <v>42697</v>
+      </c>
+      <c r="I4" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="35">
+        <v>42697</v>
+      </c>
       <c r="K4" s="11"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="11"/>
+      <c r="L4" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="33" t="s">
+        <v>38</v>
+      </c>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
       <c r="P4" s="13"/>
@@ -5010,6 +5111,6 @@
   <autoFilter ref="A1:U10"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
@@ -18,12 +13,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>No</t>
   </si>
@@ -163,19 +158,23 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>房源设置离职提示错误</t>
+    <t>李亚林</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>李亚林</t>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源设置离职提示错误</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -187,23 +186,27 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,17 +214,20 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -233,6 +239,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -838,14 +845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="4" customWidth="1"/>
@@ -871,7 +878,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -936,7 +943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -980,15 +987,19 @@
       <c r="O2" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="20"/>
+      <c r="P2" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="25"/>
       <c r="V2" s="26"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1026,17 +1037,27 @@
       <c r="M3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="18"/>
+      <c r="N3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="18">
+        <v>5250</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="25"/>
       <c r="V3" s="26"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1046,8 +1067,8 @@
       <c r="C4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>39</v>
+      <c r="D4" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>34</v>
@@ -1069,22 +1090,32 @@
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="27"/>
+      <c r="N4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="13">
+        <v>42697</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="27">
+        <v>5234</v>
+      </c>
       <c r="S4" s="27"/>
       <c r="T4" s="27"/>
       <c r="U4" s="28"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1108,7 +1139,7 @@
       <c r="U5" s="28"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1132,7 +1163,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1156,7 +1187,7 @@
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1180,7 +1211,7 @@
       <c r="U8" s="28"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1204,7 +1235,7 @@
       <c r="U9" s="28"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1228,7 +1259,7 @@
       <c r="U10" s="25"/>
       <c r="V10" s="26"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1252,7 +1283,7 @@
       <c r="U11" s="25"/>
       <c r="V11" s="26"/>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1276,7 +1307,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="26"/>
     </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1300,7 +1331,7 @@
       <c r="U13" s="25"/>
       <c r="V13" s="26"/>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1324,7 +1355,7 @@
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1348,7 +1379,7 @@
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
     </row>
-    <row r="16" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1372,7 +1403,7 @@
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1396,7 +1427,7 @@
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1420,7 +1451,7 @@
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1444,7 +1475,7 @@
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1468,7 +1499,7 @@
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1492,7 +1523,7 @@
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1516,7 +1547,7 @@
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1540,7 +1571,7 @@
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
     </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1564,7 +1595,7 @@
       <c r="U24" s="25"/>
       <c r="V24" s="26"/>
     </row>
-    <row r="25" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1588,7 +1619,7 @@
       <c r="U25" s="25"/>
       <c r="V25" s="26"/>
     </row>
-    <row r="26" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1612,7 +1643,7 @@
       <c r="U26" s="25"/>
       <c r="V26" s="26"/>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1636,7 +1667,7 @@
       <c r="U27" s="25"/>
       <c r="V27" s="26"/>
     </row>
-    <row r="28" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1660,7 +1691,7 @@
       <c r="U28" s="25"/>
       <c r="V28" s="26"/>
     </row>
-    <row r="29" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1684,7 +1715,7 @@
       <c r="U29" s="30"/>
       <c r="V29" s="26"/>
     </row>
-    <row r="30" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22" s="2" customFormat="1" ht="16.5">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1708,7 +1739,7 @@
       <c r="U30" s="30"/>
       <c r="V30" s="26"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="16.5">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1731,7 +1762,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22" ht="16.5">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1754,7 +1785,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="16.5">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1777,7 +1808,7 @@
       <c r="T33" s="18"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1800,7 +1831,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1823,7 +1854,7 @@
       <c r="T35" s="18"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1846,7 +1877,7 @@
       <c r="T36" s="18"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1869,7 +1900,7 @@
       <c r="T37" s="18"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1892,7 +1923,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1915,7 +1946,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1938,7 +1969,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1961,7 +1992,7 @@
       <c r="T41" s="18"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -1984,7 +2015,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2007,7 +2038,7 @@
       <c r="T43" s="18"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2030,7 +2061,7 @@
       <c r="T44" s="18"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2053,7 +2084,7 @@
       <c r="T45" s="18"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2076,7 +2107,7 @@
       <c r="T46" s="18"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2099,7 +2130,7 @@
       <c r="T47" s="18"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2122,7 +2153,7 @@
       <c r="T48" s="18"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2145,7 +2176,7 @@
       <c r="T49" s="18"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2168,7 +2199,7 @@
       <c r="T50" s="18"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2191,7 +2222,7 @@
       <c r="T51" s="18"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -2214,7 +2245,7 @@
       <c r="T52" s="18"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2237,7 +2268,7 @@
       <c r="T53" s="18"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2260,7 +2291,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2283,7 +2314,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2306,7 +2337,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2329,7 +2360,7 @@
       <c r="T57" s="18"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2352,7 +2383,7 @@
       <c r="T58" s="18"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2375,7 +2406,7 @@
       <c r="T59" s="18"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2398,7 +2429,7 @@
       <c r="T60" s="18"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -2421,7 +2452,7 @@
       <c r="T61" s="18"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2444,7 +2475,7 @@
       <c r="T62" s="18"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2467,7 +2498,7 @@
       <c r="T63" s="18"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2490,7 +2521,7 @@
       <c r="T64" s="18"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2513,7 +2544,7 @@
       <c r="T65" s="18"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2536,7 +2567,7 @@
       <c r="T66" s="18"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2559,7 +2590,7 @@
       <c r="T67" s="18"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2582,7 +2613,7 @@
       <c r="T68" s="18"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2605,7 +2636,7 @@
       <c r="T69" s="18"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -2628,7 +2659,7 @@
       <c r="T70" s="18"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2651,7 +2682,7 @@
       <c r="T71" s="18"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2674,7 +2705,7 @@
       <c r="T72" s="18"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2697,7 +2728,7 @@
       <c r="T73" s="18"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -2720,7 +2751,7 @@
       <c r="T74" s="18"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="16.5">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2743,7 +2774,7 @@
       <c r="T75" s="18"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="16.5">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -2766,7 +2797,7 @@
       <c r="T76" s="18"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="16.5">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2789,7 +2820,7 @@
       <c r="T77" s="18"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="16.5">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -2812,7 +2843,7 @@
       <c r="T78" s="18"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="16.5">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2835,7 +2866,7 @@
       <c r="T79" s="18"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="16.5">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -2858,7 +2889,7 @@
       <c r="T80" s="18"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21" ht="16.5">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -2881,7 +2912,7 @@
       <c r="T81" s="18"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21" ht="16.5">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -2904,7 +2935,7 @@
       <c r="T82" s="18"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21" ht="16.5">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -2927,7 +2958,7 @@
       <c r="T83" s="18"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21" ht="16.5">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -2950,7 +2981,7 @@
       <c r="T84" s="18"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21" ht="16.5">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -2973,7 +3004,7 @@
       <c r="T85" s="18"/>
       <c r="U85" s="15"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -2996,7 +3027,7 @@
       <c r="T86" s="18"/>
       <c r="U86" s="15"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -3019,7 +3050,7 @@
       <c r="T87" s="18"/>
       <c r="U87" s="15"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -3042,7 +3073,7 @@
       <c r="T88" s="18"/>
       <c r="U88" s="15"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -3065,7 +3096,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="15"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -3088,7 +3119,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="15"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -3111,7 +3142,7 @@
       <c r="T91" s="18"/>
       <c r="U91" s="15"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -3134,7 +3165,7 @@
       <c r="T92" s="18"/>
       <c r="U92" s="15"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -3157,7 +3188,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="15"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3180,7 +3211,7 @@
       <c r="T94" s="18"/>
       <c r="U94" s="15"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -3203,7 +3234,7 @@
       <c r="T95" s="18"/>
       <c r="U95" s="15"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -3226,7 +3257,7 @@
       <c r="T96" s="18"/>
       <c r="U96" s="15"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -3249,7 +3280,7 @@
       <c r="T97" s="18"/>
       <c r="U97" s="15"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -3272,7 +3303,7 @@
       <c r="T98" s="18"/>
       <c r="U98" s="15"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -3295,7 +3326,7 @@
       <c r="T99" s="18"/>
       <c r="U99" s="15"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -3318,7 +3349,7 @@
       <c r="T100" s="18"/>
       <c r="U100" s="15"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -3341,7 +3372,7 @@
       <c r="T101" s="18"/>
       <c r="U101" s="15"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3364,7 +3395,7 @@
       <c r="T102" s="18"/>
       <c r="U102" s="15"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -3387,7 +3418,7 @@
       <c r="T103" s="18"/>
       <c r="U103" s="15"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -3410,7 +3441,7 @@
       <c r="T104" s="18"/>
       <c r="U104" s="15"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -3433,7 +3464,7 @@
       <c r="T105" s="18"/>
       <c r="U105" s="15"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -3456,7 +3487,7 @@
       <c r="T106" s="18"/>
       <c r="U106" s="15"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -3479,7 +3510,7 @@
       <c r="T107" s="18"/>
       <c r="U107" s="15"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -3502,7 +3533,7 @@
       <c r="T108" s="18"/>
       <c r="U108" s="15"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3525,7 +3556,7 @@
       <c r="T109" s="18"/>
       <c r="U109" s="15"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -3548,7 +3579,7 @@
       <c r="T110" s="18"/>
       <c r="U110" s="15"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -3571,7 +3602,7 @@
       <c r="T111" s="18"/>
       <c r="U111" s="15"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -3594,7 +3625,7 @@
       <c r="T112" s="18"/>
       <c r="U112" s="15"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -3617,7 +3648,7 @@
       <c r="T113" s="18"/>
       <c r="U113" s="15"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -3640,7 +3671,7 @@
       <c r="T114" s="18"/>
       <c r="U114" s="15"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -3663,7 +3694,7 @@
       <c r="T115" s="18"/>
       <c r="U115" s="15"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -3686,7 +3717,7 @@
       <c r="T116" s="18"/>
       <c r="U116" s="15"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -3709,7 +3740,7 @@
       <c r="T117" s="18"/>
       <c r="U117" s="15"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -3732,7 +3763,7 @@
       <c r="T118" s="18"/>
       <c r="U118" s="15"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -3755,7 +3786,7 @@
       <c r="T119" s="18"/>
       <c r="U119" s="15"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -3778,7 +3809,7 @@
       <c r="T120" s="18"/>
       <c r="U120" s="15"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -3801,7 +3832,7 @@
       <c r="T121" s="18"/>
       <c r="U121" s="15"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -3824,7 +3855,7 @@
       <c r="T122" s="18"/>
       <c r="U122" s="15"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -3847,7 +3878,7 @@
       <c r="T123" s="18"/>
       <c r="U123" s="15"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -3870,7 +3901,7 @@
       <c r="T124" s="18"/>
       <c r="U124" s="15"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -3893,7 +3924,7 @@
       <c r="T125" s="18"/>
       <c r="U125" s="15"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -3916,7 +3947,7 @@
       <c r="T126" s="18"/>
       <c r="U126" s="15"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -3939,7 +3970,7 @@
       <c r="T127" s="18"/>
       <c r="U127" s="15"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -3962,7 +3993,7 @@
       <c r="T128" s="18"/>
       <c r="U128" s="15"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -3985,7 +4016,7 @@
       <c r="T129" s="18"/>
       <c r="U129" s="15"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -4008,7 +4039,7 @@
       <c r="T130" s="18"/>
       <c r="U130" s="15"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -4031,7 +4062,7 @@
       <c r="T131" s="18"/>
       <c r="U131" s="15"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -4054,7 +4085,7 @@
       <c r="T132" s="18"/>
       <c r="U132" s="15"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -4077,7 +4108,7 @@
       <c r="T133" s="18"/>
       <c r="U133" s="15"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -4100,7 +4131,7 @@
       <c r="T134" s="18"/>
       <c r="U134" s="15"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -4123,7 +4154,7 @@
       <c r="T135" s="18"/>
       <c r="U135" s="15"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -4146,7 +4177,7 @@
       <c r="T136" s="18"/>
       <c r="U136" s="15"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -4169,7 +4200,7 @@
       <c r="T137" s="18"/>
       <c r="U137" s="15"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -4192,7 +4223,7 @@
       <c r="T138" s="18"/>
       <c r="U138" s="15"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -4215,7 +4246,7 @@
       <c r="T139" s="18"/>
       <c r="U139" s="15"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -4238,7 +4269,7 @@
       <c r="T140" s="18"/>
       <c r="U140" s="15"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -4261,7 +4292,7 @@
       <c r="T141" s="18"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -4284,7 +4315,7 @@
       <c r="T142" s="18"/>
       <c r="U142" s="15"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -4307,7 +4338,7 @@
       <c r="T143" s="18"/>
       <c r="U143" s="15"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -4330,7 +4361,7 @@
       <c r="T144" s="18"/>
       <c r="U144" s="15"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -4353,7 +4384,7 @@
       <c r="T145" s="18"/>
       <c r="U145" s="15"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -4376,7 +4407,7 @@
       <c r="T146" s="18"/>
       <c r="U146" s="15"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -4399,7 +4430,7 @@
       <c r="T147" s="18"/>
       <c r="U147" s="15"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -4422,7 +4453,7 @@
       <c r="T148" s="18"/>
       <c r="U148" s="15"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -4445,7 +4476,7 @@
       <c r="T149" s="18"/>
       <c r="U149" s="15"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -4468,7 +4499,7 @@
       <c r="T150" s="18"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -4491,7 +4522,7 @@
       <c r="T151" s="18"/>
       <c r="U151" s="15"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -4511,7 +4542,7 @@
       <c r="Q152" s="15"/>
       <c r="U152" s="15"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -4531,7 +4562,7 @@
       <c r="Q153" s="15"/>
       <c r="U153" s="15"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -4551,7 +4582,7 @@
       <c r="Q154" s="15"/>
       <c r="U154" s="15"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -4571,7 +4602,7 @@
       <c r="Q155" s="15"/>
       <c r="U155" s="15"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -4591,7 +4622,7 @@
       <c r="Q156" s="15"/>
       <c r="U156" s="15"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -4611,7 +4642,7 @@
       <c r="Q157" s="15"/>
       <c r="U157" s="15"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -4631,7 +4662,7 @@
       <c r="Q158" s="15"/>
       <c r="U158" s="15"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -4651,7 +4682,7 @@
       <c r="Q159" s="15"/>
       <c r="U159" s="15"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -4671,7 +4702,7 @@
       <c r="Q160" s="15"/>
       <c r="U160" s="15"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -4691,7 +4722,7 @@
       <c r="Q161" s="15"/>
       <c r="U161" s="15"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -4711,7 +4742,7 @@
       <c r="Q162" s="15"/>
       <c r="U162" s="15"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -4731,7 +4762,7 @@
       <c r="Q163" s="15"/>
       <c r="U163" s="15"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -4751,7 +4782,7 @@
       <c r="Q164" s="15"/>
       <c r="U164" s="15"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -4771,7 +4802,7 @@
       <c r="Q165" s="15"/>
       <c r="U165" s="15"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -4791,7 +4822,7 @@
       <c r="Q166" s="15"/>
       <c r="U166" s="15"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -4811,7 +4842,7 @@
       <c r="Q167" s="15"/>
       <c r="U167" s="15"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -4831,7 +4862,7 @@
       <c r="Q168" s="15"/>
       <c r="U168" s="15"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -4851,7 +4882,7 @@
       <c r="Q169" s="15"/>
       <c r="U169" s="15"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:21">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -4871,7 +4902,7 @@
       <c r="Q170" s="15"/>
       <c r="U170" s="15"/>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:21">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -4891,7 +4922,7 @@
       <c r="Q171" s="15"/>
       <c r="U171" s="15"/>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:21">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -4911,7 +4942,7 @@
       <c r="Q172" s="15"/>
       <c r="U172" s="15"/>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:21">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -4931,7 +4962,7 @@
       <c r="Q173" s="15"/>
       <c r="U173" s="15"/>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:21">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -4951,7 +4982,7 @@
       <c r="Q174" s="15"/>
       <c r="U174" s="15"/>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:21">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -4971,7 +5002,7 @@
       <c r="Q175" s="15"/>
       <c r="U175" s="15"/>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:21">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -4991,7 +5022,7 @@
       <c r="Q176" s="15"/>
       <c r="U176" s="15"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:21">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -5011,7 +5042,7 @@
       <c r="Q177" s="15"/>
       <c r="U177" s="15"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:21">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -5031,7 +5062,7 @@
       <c r="Q178" s="15"/>
       <c r="U178" s="15"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:21">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -5051,7 +5082,7 @@
       <c r="Q179" s="15"/>
       <c r="U179" s="15"/>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:21">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -5071,38 +5102,38 @@
       <c r="Q180" s="15"/>
       <c r="U180" s="15"/>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:21">
       <c r="A181" s="18"/>
       <c r="O181" s="18"/>
       <c r="P181" s="19"/>
       <c r="Q181" s="15"/>
       <c r="U181" s="15"/>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:21">
       <c r="A182" s="18"/>
       <c r="O182" s="18"/>
       <c r="P182" s="19"/>
       <c r="Q182" s="15"/>
       <c r="U182" s="15"/>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:21">
       <c r="A183" s="18"/>
       <c r="P183" s="19"/>
       <c r="Q183" s="15"/>
       <c r="U183" s="15"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:21">
       <c r="A184" s="18"/>
       <c r="P184" s="19"/>
       <c r="Q184" s="15"/>
       <c r="U184" s="15"/>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:21">
       <c r="A185" s="18"/>
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:21">
       <c r="A186" s="18"/>
       <c r="Q186" s="15"/>
       <c r="U186" s="15"/>

--- a/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.1.1/版本Bug和特性计划及评审表v5.1.1_马丁组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
@@ -13,12 +18,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.1.1 新特性|Fix Bug'!$A$1:$U$10</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>No</t>
   </si>
@@ -169,12 +174,17 @@
     <t>房源设置离职提示错误</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">子账号添加角色时偶尔插入其他渠道的角色
+</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -845,18 +855,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
     <col min="2" max="3" width="12.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="36.875" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="4" customWidth="1"/>
     <col min="6" max="6" width="25.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="4" customWidth="1"/>
@@ -878,7 +888,7 @@
     <col min="23" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -943,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -999,7 +1009,7 @@
       <c r="U2" s="25"/>
       <c r="V2" s="26"/>
     </row>
-    <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1">
+    <row r="3" spans="1:22" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1057,7 +1067,7 @@
       <c r="U3" s="25"/>
       <c r="V3" s="26"/>
     </row>
-    <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31">
         <v>3</v>
       </c>
@@ -1115,23 +1125,53 @@
       <c r="U4" s="28"/>
       <c r="V4" s="29"/>
     </row>
-    <row r="5" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="13"/>
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="35">
+        <v>42697</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="35">
+        <v>42697</v>
+      </c>
       <c r="K5" s="11"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="13"/>
+      <c r="L5" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="13">
+        <v>42697</v>
+      </c>
       <c r="Q5" s="20"/>
       <c r="R5" s="27"/>
       <c r="S5" s="27"/>
@@ -1139,7 +1179,7 @@
       <c r="U5" s="28"/>
       <c r="V5" s="29"/>
     </row>
-    <row r="6" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1">
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1163,7 +1203,7 @@
       <c r="U6" s="28"/>
       <c r="V6" s="29"/>
     </row>
-    <row r="7" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1">
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1187,7 +1227,7 @@
       <c r="U7" s="28"/>
       <c r="V7" s="29"/>
     </row>
-    <row r="8" spans="1:22" s="3" customFormat="1" ht="16.5">
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1211,7 +1251,7 @@
       <c r="U8" s="28"/>
       <c r="V8" s="29"/>
     </row>
-    <row r="9" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1">
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1235,7 +1275,7 @@
       <c r="U9" s="28"/>
       <c r="V9" s="29"/>
     </row>
-    <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1">
+    <row r="10" spans="1:22" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1259,7 +1299,7 @@
       <c r="U10" s="25"/>
       <c r="V10" s="26"/>
     </row>
-    <row r="11" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="11" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1283,7 +1323,7 @@
       <c r="U11" s="25"/>
       <c r="V11" s="26"/>
     </row>
-    <row r="12" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1307,7 +1347,7 @@
       <c r="U12" s="25"/>
       <c r="V12" s="26"/>
     </row>
-    <row r="13" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="13" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1331,7 +1371,7 @@
       <c r="U13" s="25"/>
       <c r="V13" s="26"/>
     </row>
-    <row r="14" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1355,7 +1395,7 @@
       <c r="U14" s="25"/>
       <c r="V14" s="26"/>
     </row>
-    <row r="15" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1379,7 +1419,7 @@
       <c r="U15" s="25"/>
       <c r="V15" s="26"/>
     </row>
-    <row r="16" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1403,7 +1443,7 @@
       <c r="U16" s="25"/>
       <c r="V16" s="26"/>
     </row>
-    <row r="17" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="17" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1427,7 +1467,7 @@
       <c r="U17" s="25"/>
       <c r="V17" s="26"/>
     </row>
-    <row r="18" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="18" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1451,7 +1491,7 @@
       <c r="U18" s="25"/>
       <c r="V18" s="26"/>
     </row>
-    <row r="19" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="19" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1475,7 +1515,7 @@
       <c r="U19" s="25"/>
       <c r="V19" s="26"/>
     </row>
-    <row r="20" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="20" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1499,7 +1539,7 @@
       <c r="U20" s="25"/>
       <c r="V20" s="26"/>
     </row>
-    <row r="21" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="21" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1523,7 +1563,7 @@
       <c r="U21" s="25"/>
       <c r="V21" s="26"/>
     </row>
-    <row r="22" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="22" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="9"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -1547,7 +1587,7 @@
       <c r="U22" s="25"/>
       <c r="V22" s="26"/>
     </row>
-    <row r="23" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="23" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -1571,7 +1611,7 @@
       <c r="U23" s="25"/>
       <c r="V23" s="26"/>
     </row>
-    <row r="24" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="24" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -1595,7 +1635,7 @@
       <c r="U24" s="25"/>
       <c r="V24" s="26"/>
     </row>
-    <row r="25" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="25" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -1619,7 +1659,7 @@
       <c r="U25" s="25"/>
       <c r="V25" s="26"/>
     </row>
-    <row r="26" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="26" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -1643,7 +1683,7 @@
       <c r="U26" s="25"/>
       <c r="V26" s="26"/>
     </row>
-    <row r="27" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="27" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -1667,7 +1707,7 @@
       <c r="U27" s="25"/>
       <c r="V27" s="26"/>
     </row>
-    <row r="28" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="28" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1691,7 +1731,7 @@
       <c r="U28" s="25"/>
       <c r="V28" s="26"/>
     </row>
-    <row r="29" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="29" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -1715,7 +1755,7 @@
       <c r="U29" s="30"/>
       <c r="V29" s="26"/>
     </row>
-    <row r="30" spans="1:22" s="2" customFormat="1" ht="16.5">
+    <row r="30" spans="1:22" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -1739,7 +1779,7 @@
       <c r="U30" s="30"/>
       <c r="V30" s="26"/>
     </row>
-    <row r="31" spans="1:22" ht="16.5">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="18"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
@@ -1762,7 +1802,7 @@
       <c r="T31" s="18"/>
       <c r="U31" s="15"/>
     </row>
-    <row r="32" spans="1:22" ht="16.5">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -1785,7 +1825,7 @@
       <c r="T32" s="18"/>
       <c r="U32" s="15"/>
     </row>
-    <row r="33" spans="1:21" ht="16.5">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="18"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -1808,7 +1848,7 @@
       <c r="T33" s="18"/>
       <c r="U33" s="15"/>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -1831,7 +1871,7 @@
       <c r="T34" s="18"/>
       <c r="U34" s="15"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -1854,7 +1894,7 @@
       <c r="T35" s="18"/>
       <c r="U35" s="15"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -1877,7 +1917,7 @@
       <c r="T36" s="18"/>
       <c r="U36" s="15"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -1900,7 +1940,7 @@
       <c r="T37" s="18"/>
       <c r="U37" s="15"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -1923,7 +1963,7 @@
       <c r="T38" s="18"/>
       <c r="U38" s="15"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -1946,7 +1986,7 @@
       <c r="T39" s="18"/>
       <c r="U39" s="15"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -1969,7 +2009,7 @@
       <c r="T40" s="18"/>
       <c r="U40" s="15"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -1992,7 +2032,7 @@
       <c r="T41" s="18"/>
       <c r="U41" s="15"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2015,7 +2055,7 @@
       <c r="T42" s="18"/>
       <c r="U42" s="15"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2038,7 +2078,7 @@
       <c r="T43" s="18"/>
       <c r="U43" s="15"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2061,7 +2101,7 @@
       <c r="T44" s="18"/>
       <c r="U44" s="15"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -2084,7 +2124,7 @@
       <c r="T45" s="18"/>
       <c r="U45" s="15"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -2107,7 +2147,7 @@
       <c r="T46" s="18"/>
       <c r="U46" s="15"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -2130,7 +2170,7 @@
       <c r="T47" s="18"/>
       <c r="U47" s="15"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -2153,7 +2193,7 @@
       <c r="T48" s="18"/>
       <c r="U48" s="15"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -2176,7 +2216,7 @@
       <c r="T49" s="18"/>
       <c r="U49" s="15"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -2199,7 +2239,7 @@
       <c r="T50" s="18"/>
       <c r="U50" s="15"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -2222,7 +2262,7 @@
       <c r="T51" s="18"/>
       <c r="U51" s="15"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -2245,7 +2285,7 @@
       <c r="T52" s="18"/>
       <c r="U52" s="15"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -2268,7 +2308,7 @@
       <c r="T53" s="18"/>
       <c r="U53" s="15"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -2291,7 +2331,7 @@
       <c r="T54" s="18"/>
       <c r="U54" s="15"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -2314,7 +2354,7 @@
       <c r="T55" s="18"/>
       <c r="U55" s="15"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -2337,7 +2377,7 @@
       <c r="T56" s="18"/>
       <c r="U56" s="15"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -2360,7 +2400,7 @@
       <c r="T57" s="18"/>
       <c r="U57" s="15"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -2383,7 +2423,7 @@
       <c r="T58" s="18"/>
       <c r="U58" s="15"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -2406,7 +2446,7 @@
       <c r="T59" s="18"/>
       <c r="U59" s="15"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -2429,7 +2469,7 @@
       <c r="T60" s="18"/>
       <c r="U60" s="15"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -2452,7 +2492,7 @@
       <c r="T61" s="18"/>
       <c r="U61" s="15"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -2475,7 +2515,7 @@
       <c r="T62" s="18"/>
       <c r="U62" s="15"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -2498,7 +2538,7 @@
       <c r="T63" s="18"/>
       <c r="U63" s="15"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -2521,7 +2561,7 @@
       <c r="T64" s="18"/>
       <c r="U64" s="15"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -2544,7 +2584,7 @@
       <c r="T65" s="18"/>
       <c r="U65" s="15"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -2567,7 +2607,7 @@
       <c r="T66" s="18"/>
       <c r="U66" s="15"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -2590,7 +2630,7 @@
       <c r="T67" s="18"/>
       <c r="U67" s="15"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -2613,7 +2653,7 @@
       <c r="T68" s="18"/>
       <c r="U68" s="15"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -2636,7 +2676,7 @@
       <c r="T69" s="18"/>
       <c r="U69" s="15"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -2659,7 +2699,7 @@
       <c r="T70" s="18"/>
       <c r="U70" s="15"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -2682,7 +2722,7 @@
       <c r="T71" s="18"/>
       <c r="U71" s="15"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -2705,7 +2745,7 @@
       <c r="T72" s="18"/>
       <c r="U72" s="15"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -2728,7 +2768,7 @@
       <c r="T73" s="18"/>
       <c r="U73" s="15"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -2751,7 +2791,7 @@
       <c r="T74" s="18"/>
       <c r="U74" s="15"/>
     </row>
-    <row r="75" spans="1:21" ht="16.5">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -2774,7 +2814,7 @@
       <c r="T75" s="18"/>
       <c r="U75" s="15"/>
     </row>
-    <row r="76" spans="1:21" ht="16.5">
+    <row r="76" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -2797,7 +2837,7 @@
       <c r="T76" s="18"/>
       <c r="U76" s="15"/>
     </row>
-    <row r="77" spans="1:21" ht="16.5">
+    <row r="77" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -2820,7 +2860,7 @@
       <c r="T77" s="18"/>
       <c r="U77" s="15"/>
     </row>
-    <row r="78" spans="1:21" ht="16.5">
+    <row r="78" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -2843,7 +2883,7 @@
       <c r="T78" s="18"/>
       <c r="U78" s="15"/>
     </row>
-    <row r="79" spans="1:21" ht="16.5">
+    <row r="79" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -2866,7 +2906,7 @@
       <c r="T79" s="18"/>
       <c r="U79" s="15"/>
     </row>
-    <row r="80" spans="1:21" ht="16.5">
+    <row r="80" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -2889,7 +2929,7 @@
       <c r="T80" s="18"/>
       <c r="U80" s="15"/>
     </row>
-    <row r="81" spans="1:21" ht="16.5">
+    <row r="81" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -2912,7 +2952,7 @@
       <c r="T81" s="18"/>
       <c r="U81" s="15"/>
     </row>
-    <row r="82" spans="1:21" ht="16.5">
+    <row r="82" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
@@ -2935,7 +2975,7 @@
       <c r="T82" s="18"/>
       <c r="U82" s="15"/>
     </row>
-    <row r="83" spans="1:21" ht="16.5">
+    <row r="83" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="18"/>
       <c r="B83" s="18"/>
       <c r="C83" s="18"/>
@@ -2958,7 +2998,7 @@
       <c r="T83" s="18"/>
       <c r="U83" s="15"/>
     </row>
-    <row r="84" spans="1:21" ht="16.5">
+    <row r="84" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="18"/>
       <c r="B84" s="18"/>
       <c r="C84" s="18"/>
@@ -2981,7 +3021,7 @@
       <c r="T84" s="18"/>
       <c r="U84" s="15"/>
     </row>
-    <row r="85" spans="1:21" ht="16.5">
+    <row r="85" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="18"/>
       <c r="B85" s="18"/>
       <c r="C85" s="18"/>
@@ -3004,7 +3044,7 @@
       <c r="T85" s="18"/>
       <c r="U85" s="15"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="18"/>
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
@@ -3027,7 +3067,7 @@
       <c r="T86" s="18"/>
       <c r="U86" s="15"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
@@ -3050,7 +3090,7 @@
       <c r="T87" s="18"/>
       <c r="U87" s="15"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="18"/>
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
@@ -3073,7 +3113,7 @@
       <c r="T88" s="18"/>
       <c r="U88" s="15"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="18"/>
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
@@ -3096,7 +3136,7 @@
       <c r="T89" s="18"/>
       <c r="U89" s="15"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="18"/>
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
@@ -3119,7 +3159,7 @@
       <c r="T90" s="18"/>
       <c r="U90" s="15"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
@@ -3142,7 +3182,7 @@
       <c r="T91" s="18"/>
       <c r="U91" s="15"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
@@ -3165,7 +3205,7 @@
       <c r="T92" s="18"/>
       <c r="U92" s="15"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
@@ -3188,7 +3228,7 @@
       <c r="T93" s="18"/>
       <c r="U93" s="15"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -3211,7 +3251,7 @@
       <c r="T94" s="18"/>
       <c r="U94" s="15"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="18"/>
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
@@ -3234,7 +3274,7 @@
       <c r="T95" s="18"/>
       <c r="U95" s="15"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="18"/>
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
@@ -3257,7 +3297,7 @@
       <c r="T96" s="18"/>
       <c r="U96" s="15"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
@@ -3280,7 +3320,7 @@
       <c r="T97" s="18"/>
       <c r="U97" s="15"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="18"/>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -3303,7 +3343,7 @@
       <c r="T98" s="18"/>
       <c r="U98" s="15"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="18"/>
       <c r="B99" s="18"/>
       <c r="C99" s="18"/>
@@ -3326,7 +3366,7 @@
       <c r="T99" s="18"/>
       <c r="U99" s="15"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
       <c r="C100" s="18"/>
@@ -3349,7 +3389,7 @@
       <c r="T100" s="18"/>
       <c r="U100" s="15"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="18"/>
       <c r="B101" s="18"/>
       <c r="C101" s="18"/>
@@ -3372,7 +3412,7 @@
       <c r="T101" s="18"/>
       <c r="U101" s="15"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="18"/>
       <c r="B102" s="18"/>
       <c r="C102" s="18"/>
@@ -3395,7 +3435,7 @@
       <c r="T102" s="18"/>
       <c r="U102" s="15"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="18"/>
       <c r="B103" s="18"/>
       <c r="C103" s="18"/>
@@ -3418,7 +3458,7 @@
       <c r="T103" s="18"/>
       <c r="U103" s="15"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="18"/>
       <c r="B104" s="18"/>
       <c r="C104" s="18"/>
@@ -3441,7 +3481,7 @@
       <c r="T104" s="18"/>
       <c r="U104" s="15"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="18"/>
       <c r="B105" s="18"/>
       <c r="C105" s="18"/>
@@ -3464,7 +3504,7 @@
       <c r="T105" s="18"/>
       <c r="U105" s="15"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="18"/>
       <c r="B106" s="18"/>
       <c r="C106" s="18"/>
@@ -3487,7 +3527,7 @@
       <c r="T106" s="18"/>
       <c r="U106" s="15"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="18"/>
       <c r="B107" s="18"/>
       <c r="C107" s="18"/>
@@ -3510,7 +3550,7 @@
       <c r="T107" s="18"/>
       <c r="U107" s="15"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="18"/>
       <c r="B108" s="18"/>
       <c r="C108" s="18"/>
@@ -3533,7 +3573,7 @@
       <c r="T108" s="18"/>
       <c r="U108" s="15"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="18"/>
       <c r="B109" s="18"/>
       <c r="C109" s="18"/>
@@ -3556,7 +3596,7 @@
       <c r="T109" s="18"/>
       <c r="U109" s="15"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="18"/>
       <c r="B110" s="18"/>
       <c r="C110" s="18"/>
@@ -3579,7 +3619,7 @@
       <c r="T110" s="18"/>
       <c r="U110" s="15"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="18"/>
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
@@ -3602,7 +3642,7 @@
       <c r="T111" s="18"/>
       <c r="U111" s="15"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="18"/>
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
@@ -3625,7 +3665,7 @@
       <c r="T112" s="18"/>
       <c r="U112" s="15"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="18"/>
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
@@ -3648,7 +3688,7 @@
       <c r="T113" s="18"/>
       <c r="U113" s="15"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
@@ -3671,7 +3711,7 @@
       <c r="T114" s="18"/>
       <c r="U114" s="15"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="18"/>
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
@@ -3694,7 +3734,7 @@
       <c r="T115" s="18"/>
       <c r="U115" s="15"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="18"/>
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
@@ -3717,7 +3757,7 @@
       <c r="T116" s="18"/>
       <c r="U116" s="15"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="18"/>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
@@ -3740,7 +3780,7 @@
       <c r="T117" s="18"/>
       <c r="U117" s="15"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="18"/>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -3763,7 +3803,7 @@
       <c r="T118" s="18"/>
       <c r="U118" s="15"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="18"/>
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
@@ -3786,7 +3826,7 @@
       <c r="T119" s="18"/>
       <c r="U119" s="15"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="18"/>
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
@@ -3809,7 +3849,7 @@
       <c r="T120" s="18"/>
       <c r="U120" s="15"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="18"/>
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
@@ -3832,7 +3872,7 @@
       <c r="T121" s="18"/>
       <c r="U121" s="15"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
@@ -3855,7 +3895,7 @@
       <c r="T122" s="18"/>
       <c r="U122" s="15"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
@@ -3878,7 +3918,7 @@
       <c r="T123" s="18"/>
       <c r="U123" s="15"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
@@ -3901,7 +3941,7 @@
       <c r="T124" s="18"/>
       <c r="U124" s="15"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
@@ -3924,7 +3964,7 @@
       <c r="T125" s="18"/>
       <c r="U125" s="15"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
@@ -3947,7 +3987,7 @@
       <c r="T126" s="18"/>
       <c r="U126" s="15"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="18"/>
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
@@ -3970,7 +4010,7 @@
       <c r="T127" s="18"/>
       <c r="U127" s="15"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="18"/>
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
@@ -3993,7 +4033,7 @@
       <c r="T128" s="18"/>
       <c r="U128" s="15"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="18"/>
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
@@ -4016,7 +4056,7 @@
       <c r="T129" s="18"/>
       <c r="U129" s="15"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="18"/>
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
@@ -4039,7 +4079,7 @@
       <c r="T130" s="18"/>
       <c r="U130" s="15"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="18"/>
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
@@ -4062,7 +4102,7 @@
       <c r="T131" s="18"/>
       <c r="U131" s="15"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="18"/>
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
@@ -4085,7 +4125,7 @@
       <c r="T132" s="18"/>
       <c r="U132" s="15"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="18"/>
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
@@ -4108,7 +4148,7 @@
       <c r="T133" s="18"/>
       <c r="U133" s="15"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="18"/>
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
@@ -4131,7 +4171,7 @@
       <c r="T134" s="18"/>
       <c r="U134" s="15"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="18"/>
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
@@ -4154,7 +4194,7 @@
       <c r="T135" s="18"/>
       <c r="U135" s="15"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="18"/>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -4177,7 +4217,7 @@
       <c r="T136" s="18"/>
       <c r="U136" s="15"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="18"/>
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
@@ -4200,7 +4240,7 @@
       <c r="T137" s="18"/>
       <c r="U137" s="15"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="18"/>
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
@@ -4223,7 +4263,7 @@
       <c r="T138" s="18"/>
       <c r="U138" s="15"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="18"/>
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
@@ -4246,7 +4286,7 @@
       <c r="T139" s="18"/>
       <c r="U139" s="15"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="18"/>
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
@@ -4269,7 +4309,7 @@
       <c r="T140" s="18"/>
       <c r="U140" s="15"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="18"/>
       <c r="B141" s="18"/>
       <c r="C141" s="18"/>
@@ -4292,7 +4332,7 @@
       <c r="T141" s="18"/>
       <c r="U141" s="15"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="18"/>
       <c r="B142" s="18"/>
       <c r="C142" s="18"/>
@@ -4315,7 +4355,7 @@
       <c r="T142" s="18"/>
       <c r="U142" s="15"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="18"/>
       <c r="B143" s="18"/>
       <c r="C143" s="18"/>
@@ -4338,7 +4378,7 @@
       <c r="T143" s="18"/>
       <c r="U143" s="15"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="18"/>
       <c r="B144" s="18"/>
       <c r="C144" s="18"/>
@@ -4361,7 +4401,7 @@
       <c r="T144" s="18"/>
       <c r="U144" s="15"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="18"/>
       <c r="B145" s="18"/>
       <c r="C145" s="18"/>
@@ -4384,7 +4424,7 @@
       <c r="T145" s="18"/>
       <c r="U145" s="15"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="18"/>
       <c r="B146" s="18"/>
       <c r="C146" s="18"/>
@@ -4407,7 +4447,7 @@
       <c r="T146" s="18"/>
       <c r="U146" s="15"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="18"/>
       <c r="B147" s="18"/>
       <c r="C147" s="18"/>
@@ -4430,7 +4470,7 @@
       <c r="T147" s="18"/>
       <c r="U147" s="15"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="18"/>
       <c r="B148" s="18"/>
       <c r="C148" s="18"/>
@@ -4453,7 +4493,7 @@
       <c r="T148" s="18"/>
       <c r="U148" s="15"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="18"/>
       <c r="B149" s="18"/>
       <c r="C149" s="18"/>
@@ -4476,7 +4516,7 @@
       <c r="T149" s="18"/>
       <c r="U149" s="15"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="18"/>
       <c r="B150" s="18"/>
       <c r="C150" s="18"/>
@@ -4499,7 +4539,7 @@
       <c r="T150" s="18"/>
       <c r="U150" s="15"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="18"/>
       <c r="B151" s="18"/>
       <c r="C151" s="18"/>
@@ -4522,7 +4562,7 @@
       <c r="T151" s="18"/>
       <c r="U151" s="15"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="18"/>
       <c r="B152" s="18"/>
       <c r="C152" s="18"/>
@@ -4542,7 +4582,7 @@
       <c r="Q152" s="15"/>
       <c r="U152" s="15"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="18"/>
       <c r="B153" s="18"/>
       <c r="C153" s="18"/>
@@ -4562,7 +4602,7 @@
       <c r="Q153" s="15"/>
       <c r="U153" s="15"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="18"/>
       <c r="B154" s="18"/>
       <c r="C154" s="18"/>
@@ -4582,7 +4622,7 @@
       <c r="Q154" s="15"/>
       <c r="U154" s="15"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="18"/>
       <c r="B155" s="18"/>
       <c r="C155" s="18"/>
@@ -4602,7 +4642,7 @@
       <c r="Q155" s="15"/>
       <c r="U155" s="15"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="18"/>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -4622,7 +4662,7 @@
       <c r="Q156" s="15"/>
       <c r="U156" s="15"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="18"/>
       <c r="B157" s="18"/>
       <c r="C157" s="18"/>
@@ -4642,7 +4682,7 @@
       <c r="Q157" s="15"/>
       <c r="U157" s="15"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
@@ -4662,7 +4702,7 @@
       <c r="Q158" s="15"/>
       <c r="U158" s="15"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
@@ -4682,7 +4722,7 @@
       <c r="Q159" s="15"/>
       <c r="U159" s="15"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
@@ -4702,7 +4742,7 @@
       <c r="Q160" s="15"/>
       <c r="U160" s="15"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
@@ -4722,7 +4762,7 @@
       <c r="Q161" s="15"/>
       <c r="U161" s="15"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
@@ -4742,7 +4782,7 @@
       <c r="Q162" s="15"/>
       <c r="U162" s="15"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="18"/>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -4762,7 +4802,7 @@
       <c r="Q163" s="15"/>
       <c r="U163" s="15"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="18"/>
       <c r="B164" s="18"/>
       <c r="C164" s="18"/>
@@ -4782,7 +4822,7 @@
       <c r="Q164" s="15"/>
       <c r="U164" s="15"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="18"/>
       <c r="B165" s="18"/>
       <c r="C165" s="18"/>
@@ -4802,7 +4842,7 @@
       <c r="Q165" s="15"/>
       <c r="U165" s="15"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="18"/>
       <c r="B166" s="18"/>
       <c r="C166" s="18"/>
@@ -4822,7 +4862,7 @@
       <c r="Q166" s="15"/>
       <c r="U166" s="15"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="18"/>
       <c r="B167" s="18"/>
       <c r="C167" s="18"/>
@@ -4842,7 +4882,7 @@
       <c r="Q167" s="15"/>
       <c r="U167" s="15"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="18"/>
       <c r="B168" s="18"/>
       <c r="C168" s="18"/>
@@ -4862,7 +4902,7 @@
       <c r="Q168" s="15"/>
       <c r="U168" s="15"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="18"/>
       <c r="B169" s="18"/>
       <c r="C169" s="18"/>
@@ -4882,7 +4922,7 @@
       <c r="Q169" s="15"/>
       <c r="U169" s="15"/>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="18"/>
       <c r="B170" s="18"/>
       <c r="C170" s="18"/>
@@ -4902,7 +4942,7 @@
       <c r="Q170" s="15"/>
       <c r="U170" s="15"/>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A171" s="18"/>
       <c r="B171" s="18"/>
       <c r="C171" s="18"/>
@@ -4922,7 +4962,7 @@
       <c r="Q171" s="15"/>
       <c r="U171" s="15"/>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A172" s="18"/>
       <c r="B172" s="18"/>
       <c r="C172" s="18"/>
@@ -4942,7 +4982,7 @@
       <c r="Q172" s="15"/>
       <c r="U172" s="15"/>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A173" s="18"/>
       <c r="B173" s="18"/>
       <c r="C173" s="18"/>
@@ -4962,7 +5002,7 @@
       <c r="Q173" s="15"/>
       <c r="U173" s="15"/>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A174" s="18"/>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -4982,7 +5022,7 @@
       <c r="Q174" s="15"/>
       <c r="U174" s="15"/>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A175" s="18"/>
       <c r="B175" s="18"/>
       <c r="C175" s="18"/>
@@ -5002,7 +5042,7 @@
       <c r="Q175" s="15"/>
       <c r="U175" s="15"/>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A176" s="18"/>
       <c r="B176" s="18"/>
       <c r="C176" s="18"/>
@@ -5022,7 +5062,7 @@
       <c r="Q176" s="15"/>
       <c r="U176" s="15"/>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A177" s="18"/>
       <c r="B177" s="18"/>
       <c r="C177" s="18"/>
@@ -5042,7 +5082,7 @@
       <c r="Q177" s="15"/>
       <c r="U177" s="15"/>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A178" s="18"/>
       <c r="B178" s="18"/>
       <c r="C178" s="18"/>
@@ -5062,7 +5102,7 @@
       <c r="Q178" s="15"/>
       <c r="U178" s="15"/>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A179" s="18"/>
       <c r="B179" s="18"/>
       <c r="C179" s="18"/>
@@ -5082,7 +5122,7 @@
       <c r="Q179" s="15"/>
       <c r="U179" s="15"/>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A180" s="18"/>
       <c r="B180" s="18"/>
       <c r="C180" s="18"/>
@@ -5102,38 +5142,38 @@
       <c r="Q180" s="15"/>
       <c r="U180" s="15"/>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A181" s="18"/>
       <c r="O181" s="18"/>
       <c r="P181" s="19"/>
       <c r="Q181" s="15"/>
       <c r="U181" s="15"/>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A182" s="18"/>
       <c r="O182" s="18"/>
       <c r="P182" s="19"/>
       <c r="Q182" s="15"/>
       <c r="U182" s="15"/>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A183" s="18"/>
       <c r="P183" s="19"/>
       <c r="Q183" s="15"/>
       <c r="U183" s="15"/>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A184" s="18"/>
       <c r="P184" s="19"/>
       <c r="Q184" s="15"/>
       <c r="U184" s="15"/>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A185" s="18"/>
       <c r="Q185" s="15"/>
       <c r="U185" s="15"/>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A186" s="18"/>
       <c r="Q186" s="15"/>
       <c r="U186" s="15"/>
